--- a/src/templates/Excel_Template.xlsx
+++ b/src/templates/Excel_Template.xlsx
@@ -8,8 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>Name</t>
   </si>
@@ -29,38 +27,89 @@
     <t>Company</t>
   </si>
   <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Test3</t>
-  </si>
-  <si>
-    <t>Request_Type</t>
-  </si>
-  <si>
-    <t>Complaint</t>
-  </si>
-  <si>
-    <t>broken vial</t>
-  </si>
-  <si>
-    <t>Request_Type_dropdown</t>
-  </si>
-  <si>
-    <t>New Order</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Order_Number</t>
+    <t>Merk</t>
+  </si>
+  <si>
+    <t>Tim</t>
+  </si>
+  <si>
+    <t>Bob</t>
+  </si>
+  <si>
+    <t>Greg</t>
+  </si>
+  <si>
+    <t>Warren</t>
+  </si>
+  <si>
+    <t>Kelsey</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Hexalen capsules</t>
+  </si>
+  <si>
+    <t>Lotrel</t>
+  </si>
+  <si>
+    <t>Lipitor</t>
+  </si>
+  <si>
+    <t>Ziac</t>
+  </si>
+  <si>
+    <t>Rocaltrol</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Odessa</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>Apopka</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>Beavercreek</t>
+  </si>
+  <si>
+    <t>Lansing</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>Ohio</t>
+  </si>
+  <si>
+    <t>Boulder</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>Comments</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,6 +121,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -97,9 +152,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -380,108 +439,143 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="4" max="4" width="21.44140625" customWidth="1"/>
-    <col min="5" max="5" width="43.109375" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2">
+        <v>109</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D3" s="2">
+        <v>134</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2">
+        <v>200</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E2" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2">
+        <v>39</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2">
+        <v>301</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$A$2:$A$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>A2:A20</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>